--- a/planilhas/PRODEGESP.xlsx
+++ b/planilhas/PRODEGESP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB912D0-532A-4832-8DB6-317240301B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AF9DE7-06F1-4C50-985E-7692324EB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODEGESP CAA" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11623,7 +11623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15129,7 +15131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18624,7 +18628,9 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22614,7 +22620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26233,7 +26241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
